--- a/nodes_source_analyses/transport/transport_car_using_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_hydrogen.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="3"/>
+    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
   <si>
     <t>Source</t>
   </si>
@@ -312,22 +312,142 @@
   <si>
     <t>http://www.energieakkoordser.nl/~/media/files/energieakkoord/nieuwsberichten/2014/brandstofvisie/verzamelde-kennisnotities-brandstoffmix.ashx</t>
   </si>
+  <si>
+    <r>
+      <t>variable_operation_and_maintenance_costs_per_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>full_load_hour</t>
+    </r>
+  </si>
+  <si>
+    <t>euro/flh</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Variable operation and maintenance costs per </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flh</t>
+    </r>
+  </si>
+  <si>
+    <t>ccs_investment</t>
+  </si>
+  <si>
+    <t>CCS investment costs</t>
+  </si>
+  <si>
+    <t>cost_of_installing</t>
+  </si>
+  <si>
+    <t>Installation costs</t>
+  </si>
+  <si>
+    <r>
+      <t>decommis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ioning_costs</t>
+    </r>
+  </si>
+  <si>
+    <t>Decommissioning costs</t>
+  </si>
+  <si>
+    <t>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</t>
+  </si>
+  <si>
+    <t>Variable operational and maintenance costs for ccs per flh</t>
+  </si>
+  <si>
+    <t>wacc</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Weighted average cost of capita</t>
+  </si>
+  <si>
+    <t>takes_part_in_ets</t>
+  </si>
+  <si>
+    <t>yes=1, no=0</t>
+  </si>
+  <si>
+    <t>construction_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction time of the plant </t>
+  </si>
+  <si>
+    <t>Set to 0 baseline</t>
+  </si>
+  <si>
+    <t>full_load_hours</t>
+  </si>
+  <si>
+    <t>Full load hours</t>
+  </si>
+  <si>
+    <t>Necessary attribute for 0 euro car costs baseline</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -816,517 +936,537 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="278">
+  <cellStyleXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="278">
+  <cellStyles count="287">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1506,6 +1646,15 @@
     <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2502,10 +2651,10 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K20"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2523,50 +2672,50 @@
     <col min="11" max="16384" width="10.625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:11">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="131" t="s">
+    <row r="2" spans="1:11">
+      <c r="B2" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="136"/>
+    <row r="3" spans="1:11">
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="134"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="136"/>
+    <row r="4" spans="1:11">
+      <c r="B4" s="146"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="148"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="139"/>
+    <row r="5" spans="1:11">
+      <c r="B5" s="149"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="151"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1">
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="1:11">
       <c r="B7" s="34"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -2577,7 +2726,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" spans="2:11" s="22" customFormat="1">
+    <row r="8" spans="1:11" s="22" customFormat="1">
       <c r="B8" s="20"/>
       <c r="C8" s="15" t="s">
         <v>20</v>
@@ -2598,7 +2747,7 @@
       </c>
       <c r="J8" s="104"/>
     </row>
-    <row r="9" spans="2:11" s="22" customFormat="1">
+    <row r="9" spans="1:11" s="22" customFormat="1">
       <c r="B9" s="21"/>
       <c r="C9" s="13"/>
       <c r="D9" s="29"/>
@@ -2609,7 +2758,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="1:11" s="22" customFormat="1" ht="16" thickBot="1">
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
         <v>51</v>
@@ -2622,7 +2771,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:11" s="22" customFormat="1" ht="16" thickBot="1">
       <c r="B11" s="21"/>
       <c r="C11" s="61" t="s">
         <v>28</v>
@@ -2644,23 +2793,30 @@
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="37"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="105"/>
+    <row r="12" spans="1:11" ht="16" thickBot="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="152" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="38">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="152" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="14"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="1:11">
       <c r="B13" s="37"/>
-      <c r="C13" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="C13" s="33"/>
       <c r="D13" s="101"/>
       <c r="E13" s="102"/>
       <c r="F13" s="33"/>
@@ -2670,121 +2826,300 @@
       <c r="J13" s="105"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="B14" s="37"/>
-      <c r="C14" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="38">
-        <f>'Research data'!H10</f>
-        <v>26600</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="107" t="s">
-        <v>58</v>
-      </c>
+      <c r="C14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="105"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="16" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="100">
-        <f>'Research data'!H11</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="38">
         <v>0</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="105"/>
+    </row>
+    <row r="16" spans="1:11" ht="16" thickBot="1">
+      <c r="B16" s="37"/>
+      <c r="C16" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="100">
+        <v>0</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="105"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="37"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="82"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="141" t="s">
+        <v>105</v>
+      </c>
       <c r="J16" s="105"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
-      <c r="B17" s="37"/>
-      <c r="C17" s="13" t="s">
+    <row r="17" spans="1:10" ht="16" thickBot="1">
+      <c r="A17" s="134"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="136" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="137" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="100">
+        <v>0</v>
+      </c>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="136"/>
+      <c r="I17" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="138"/>
+    </row>
+    <row r="18" spans="1:10" ht="16" thickBot="1">
+      <c r="A18" s="134"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="137"/>
+      <c r="E18" s="100">
+        <v>0</v>
+      </c>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="136"/>
+      <c r="I18" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="138"/>
+    </row>
+    <row r="19" spans="1:10" ht="16" thickBot="1">
+      <c r="A19" s="134"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="137"/>
+      <c r="E19" s="100">
+        <v>0</v>
+      </c>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="136"/>
+      <c r="I19" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="138"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="134"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="137"/>
+      <c r="E20" s="100">
+        <v>0</v>
+      </c>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="136"/>
+      <c r="I20" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="138"/>
+    </row>
+    <row r="21" spans="1:10" ht="16" thickBot="1">
+      <c r="A21" s="134"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="137"/>
+      <c r="E21" s="100">
+        <v>0</v>
+      </c>
+      <c r="F21" s="136"/>
+      <c r="G21" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="136"/>
+      <c r="I21" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="138"/>
+    </row>
+    <row r="22" spans="1:10" ht="16" thickBot="1">
+      <c r="A22" s="134"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="100">
+        <v>0</v>
+      </c>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="139"/>
+      <c r="I22" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="142"/>
+    </row>
+    <row r="23" spans="1:10" ht="16" thickBot="1">
+      <c r="A23" s="134"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="100">
+        <v>0</v>
+      </c>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="142"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="37"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="105"/>
+    </row>
+    <row r="25" spans="1:10" ht="16" thickBot="1">
+      <c r="B25" s="37"/>
+      <c r="C25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="105"/>
-    </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
-      <c r="B18" s="37"/>
-      <c r="C18" s="36" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="105"/>
+    </row>
+    <row r="26" spans="1:10" ht="16" thickBot="1">
+      <c r="B26" s="37"/>
+      <c r="C26" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D26" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E26" s="38">
         <f>'Research data'!H14</f>
         <v>13</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="67" t="s">
+      <c r="F26" s="36"/>
+      <c r="G26" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="107" t="s">
+      <c r="H26" s="36"/>
+      <c r="I26" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="105"/>
-    </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
-      <c r="B19" s="37"/>
-      <c r="C19" s="36" t="s">
+      <c r="J26" s="105"/>
+    </row>
+    <row r="27" spans="1:10" ht="16" thickBot="1">
+      <c r="A27" s="134"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="100">
+        <v>0</v>
+      </c>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="139"/>
+      <c r="I27" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="142"/>
+    </row>
+    <row r="28" spans="1:10" ht="16" thickBot="1">
+      <c r="B28" s="37"/>
+      <c r="C28" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D28" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E28" s="38">
         <v>0</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="105"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="105"/>
+    </row>
+    <row r="29" spans="1:10" ht="16" thickBot="1">
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2840,7 +3175,7 @@
   <dimension ref="A2:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3151,7 +3486,7 @@
   </sheetPr>
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13:J13"/>
     </sheetView>
   </sheetViews>
@@ -3345,28 +3680,28 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="65"/>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="141" t="s">
+      <c r="D13" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="141" t="s">
+      <c r="E13" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="141">
+      <c r="F13" s="132">
         <v>2014</v>
       </c>
-      <c r="G13" s="141">
+      <c r="G13" s="132">
         <v>2014</v>
       </c>
-      <c r="H13" s="142">
+      <c r="H13" s="133">
         <v>42326</v>
       </c>
-      <c r="I13" s="141" t="s">
+      <c r="I13" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="141" t="s">
+      <c r="J13" s="132" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3396,7 +3731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>

--- a/nodes_source_analyses/transport/transport_car_using_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_hydrogen.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="9600" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -191,9 +199,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Initial investment costs </t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Technical</t>
@@ -424,6 +429,10 @@
   <si>
     <t>Necessary attribute for 0 euro car costs baseline</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -435,7 +444,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -609,11 +618,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1325,32 +1329,32 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1377,10 +1381,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1405,28 +1409,28 @@
     <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1436,35 +1440,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="287">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1757,80 +1761,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>482600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2026,7 +1965,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2469,50 +2408,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="18" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.140625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2521,29 +2460,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="79" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="80"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="81"/>
       <c r="C10" s="82"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="81" t="s">
         <v>31</v>
@@ -2552,33 +2491,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="81"/>
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="81"/>
       <c r="C13" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="81" t="s">
         <v>36</v>
@@ -2587,49 +2526,49 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="81"/>
       <c r="C17" s="86" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="81"/>
       <c r="C18" s="87" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="81"/>
       <c r="C19" s="88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="89"/>
       <c r="C20" s="90" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="89"/>
       <c r="C21" s="91" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="89"/>
       <c r="C22" s="92" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="89"/>
       <c r="C23" s="93" t="s">
         <v>44</v>
@@ -2638,84 +2577,79 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="B2" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="2.25" style="32" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="32"/>
+    <col min="1" max="1" width="3.85546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="143" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="146"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1">
+    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="145" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="148"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="150"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="148"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="150"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="151"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="153"/>
+    </row>
+    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="34"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -2726,7 +2660,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" spans="1:11" s="22" customFormat="1">
+    <row r="8" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="15" t="s">
         <v>20</v>
@@ -2747,7 +2681,7 @@
       </c>
       <c r="J8" s="104"/>
     </row>
-    <row r="9" spans="1:11" s="22" customFormat="1">
+    <row r="9" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="13"/>
       <c r="D9" s="29"/>
@@ -2758,10 +2692,10 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:11" s="22" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="1:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="13"/>
@@ -2771,13 +2705,13 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="22" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="61" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="127">
         <f>'Research data'!H7</f>
@@ -2785,36 +2719,36 @@
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="126" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="107" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1">
+    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="152" t="s">
-        <v>106</v>
+      <c r="C12" s="143" t="s">
+        <v>105</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="38">
         <v>0</v>
       </c>
       <c r="F12" s="36"/>
-      <c r="G12" s="152" t="s">
+      <c r="G12" s="143" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="144" t="s">
         <v>107</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="153" t="s">
-        <v>108</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="37"/>
       <c r="C13" s="33"/>
       <c r="D13" s="101"/>
@@ -2826,10 +2760,10 @@
       <c r="J13" s="105"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="101"/>
       <c r="E14" s="102"/>
@@ -2839,7 +2773,7 @@
       <c r="I14" s="33"/>
       <c r="J14" s="105"/>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="36" t="s">
         <v>23</v>
@@ -2856,11 +2790,11 @@
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="141" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J15" s="105"/>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="36" t="s">
         <v>24</v>
@@ -2877,37 +2811,37 @@
       </c>
       <c r="H16" s="36"/>
       <c r="I16" s="141" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J16" s="105"/>
     </row>
-    <row r="17" spans="1:10" ht="16" thickBot="1">
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="134"/>
       <c r="B17" s="135"/>
       <c r="C17" s="136" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="137" t="s">
         <v>87</v>
-      </c>
-      <c r="D17" s="137" t="s">
-        <v>88</v>
       </c>
       <c r="E17" s="100">
         <v>0</v>
       </c>
       <c r="F17" s="136"/>
       <c r="G17" s="136" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="136"/>
-      <c r="I17" s="153" t="s">
-        <v>108</v>
+      <c r="I17" s="144" t="s">
+        <v>107</v>
       </c>
       <c r="J17" s="138"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1">
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="134"/>
       <c r="B18" s="135"/>
       <c r="C18" s="136" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="137"/>
       <c r="E18" s="100">
@@ -2915,19 +2849,19 @@
       </c>
       <c r="F18" s="136"/>
       <c r="G18" s="136" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="136"/>
-      <c r="I18" s="153" t="s">
-        <v>108</v>
+      <c r="I18" s="144" t="s">
+        <v>107</v>
       </c>
       <c r="J18" s="138"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1">
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="134"/>
       <c r="B19" s="135"/>
       <c r="C19" s="136" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="137"/>
       <c r="E19" s="100">
@@ -2935,19 +2869,19 @@
       </c>
       <c r="F19" s="136"/>
       <c r="G19" s="136" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="136"/>
-      <c r="I19" s="153" t="s">
-        <v>108</v>
+      <c r="I19" s="144" t="s">
+        <v>107</v>
       </c>
       <c r="J19" s="138"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="134"/>
       <c r="B20" s="135"/>
       <c r="C20" s="136" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="137"/>
       <c r="E20" s="100">
@@ -2955,19 +2889,19 @@
       </c>
       <c r="F20" s="136"/>
       <c r="G20" s="136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H20" s="136"/>
-      <c r="I20" s="153" t="s">
-        <v>108</v>
+      <c r="I20" s="144" t="s">
+        <v>107</v>
       </c>
       <c r="J20" s="138"/>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="134"/>
       <c r="B21" s="135"/>
       <c r="C21" s="136" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="137"/>
       <c r="E21" s="100">
@@ -2975,44 +2909,44 @@
       </c>
       <c r="F21" s="136"/>
       <c r="G21" s="139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H21" s="136"/>
-      <c r="I21" s="153" t="s">
-        <v>108</v>
+      <c r="I21" s="144" t="s">
+        <v>107</v>
       </c>
       <c r="J21" s="138"/>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="134"/>
       <c r="B22" s="140"/>
       <c r="C22" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="E22" s="100">
         <v>0</v>
       </c>
       <c r="F22" s="139"/>
       <c r="G22" s="139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" s="139"/>
       <c r="I22" s="141" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J22" s="142"/>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="134"/>
       <c r="B23" s="140"/>
       <c r="C23" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="E23" s="100">
         <v>0</v>
@@ -3021,11 +2955,11 @@
       <c r="G23" s="139"/>
       <c r="H23" s="139"/>
       <c r="I23" s="141" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J23" s="142"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="37"/>
       <c r="C24" s="33"/>
       <c r="D24" s="101"/>
@@ -3036,7 +2970,7 @@
       <c r="I24" s="82"/>
       <c r="J24" s="105"/>
     </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1">
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="13" t="s">
         <v>5</v>
@@ -3049,7 +2983,7 @@
       <c r="I25" s="82"/>
       <c r="J25" s="105"/>
     </row>
-    <row r="26" spans="1:10" ht="16" thickBot="1">
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="36" t="s">
         <v>25</v>
@@ -3067,15 +3001,15 @@
       </c>
       <c r="H26" s="36"/>
       <c r="I26" s="107" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J26" s="105"/>
     </row>
-    <row r="27" spans="1:10" ht="16" thickBot="1">
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="134"/>
       <c r="B27" s="140"/>
       <c r="C27" s="139" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>1</v>
@@ -3085,15 +3019,15 @@
       </c>
       <c r="F27" s="139"/>
       <c r="G27" s="139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H27" s="139"/>
       <c r="I27" s="141" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J27" s="142"/>
     </row>
-    <row r="28" spans="1:10" ht="16" thickBot="1">
+    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="36" t="s">
         <v>22</v>
@@ -3110,7 +3044,7 @@
       <c r="I28" s="31"/>
       <c r="J28" s="105"/>
     </row>
-    <row r="29" spans="1:10" ht="16" thickBot="1">
+    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -3123,47 +3057,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>482600</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3178,29 +3075,29 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="42" customWidth="1"/>
-    <col min="2" max="2" width="2.75" style="42" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="42" customWidth="1"/>
-    <col min="7" max="7" width="3.125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.875" style="42" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.75" style="42" customWidth="1"/>
-    <col min="14" max="14" width="9.375" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.5" style="42" customWidth="1"/>
-    <col min="16" max="16" width="68.875" style="42" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="42"/>
+    <col min="1" max="1" width="3.28515625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="42" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="42" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" style="42" customWidth="1"/>
+    <col min="16" max="16" width="68.85546875" style="42" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="16" thickBot="1"/>
-    <row r="3" spans="1:17">
+    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -3217,7 +3114,7 @@
       <c r="O3" s="44"/>
       <c r="P3" s="44"/>
     </row>
-    <row r="4" spans="1:17" s="22" customFormat="1">
+    <row r="4" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
       <c r="C4" s="95" t="s">
         <v>47</v>
@@ -3233,22 +3130,22 @@
       </c>
       <c r="I4" s="95"/>
       <c r="J4" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="95"/>
       <c r="L4" s="95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="95"/>
       <c r="N4" s="95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O4" s="95"/>
       <c r="P4" s="95" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="21"/>
       <c r="C5" s="9"/>
@@ -3267,11 +3164,11 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="21"/>
       <c r="C6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3286,7 +3183,7 @@
       <c r="N6" s="46"/>
       <c r="P6" s="58"/>
     </row>
-    <row r="7" spans="1:17" ht="16" thickBot="1">
+    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="21"/>
       <c r="C7" s="115" t="s">
@@ -3295,7 +3192,7 @@
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="116" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="96"/>
       <c r="H7" s="124">
@@ -3319,10 +3216,10 @@
       </c>
       <c r="O7" s="46"/>
       <c r="P7" s="130" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="45"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
@@ -3338,7 +3235,7 @@
       <c r="O8" s="46"/>
       <c r="P8" s="60"/>
     </row>
-    <row r="9" spans="1:17" ht="16" thickBot="1">
+    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="12" t="s">
         <v>48</v>
@@ -3356,7 +3253,7 @@
       <c r="O9" s="49"/>
       <c r="P9" s="114"/>
     </row>
-    <row r="10" spans="1:17" ht="16" thickBot="1">
+    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="52" t="s">
         <v>49</v>
@@ -3377,7 +3274,7 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16" thickBot="1">
+    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="45"/>
       <c r="C11" s="52" t="s">
         <v>46</v>
@@ -3392,7 +3289,7 @@
       <c r="I11" s="56"/>
       <c r="J11" s="49"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="45"/>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
@@ -3408,7 +3305,7 @@
       <c r="O12" s="46"/>
       <c r="P12" s="60"/>
     </row>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
+    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="45"/>
       <c r="C13" s="12" t="s">
         <v>5</v>
@@ -3427,7 +3324,7 @@
       <c r="O13" s="46"/>
       <c r="P13" s="48"/>
     </row>
-    <row r="14" spans="1:17" ht="16" thickBot="1">
+    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="45"/>
       <c r="C14" s="52" t="s">
         <v>3</v>
@@ -3451,10 +3348,10 @@
       <c r="O14" s="46"/>
       <c r="P14" s="68"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
+    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="45"/>
       <c r="C15" s="115" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
@@ -3471,11 +3368,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3490,22 +3382,22 @@
       <selection activeCell="C13" sqref="C13:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="2.125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="62" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="62" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="69" customWidth="1"/>
-    <col min="9" max="9" width="34.5" style="69" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="62" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="62"/>
+    <col min="1" max="1" width="5.5703125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="62" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="62" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="69" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" style="69" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="62" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="63"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -3516,7 +3408,7 @@
       <c r="I2" s="70"/>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="65"/>
       <c r="C3" s="71" t="s">
         <v>16</v>
@@ -3529,7 +3421,7 @@
       <c r="I3" s="72"/>
       <c r="J3" s="66"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="65"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -3540,7 +3432,7 @@
       <c r="I4" s="73"/>
       <c r="J4" s="66"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="74"/>
       <c r="C5" s="75" t="s">
         <v>17</v>
@@ -3555,19 +3447,19 @@
         <v>18</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="76" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="65"/>
       <c r="C6" s="71"/>
       <c r="D6" s="71"/>
@@ -3578,13 +3470,13 @@
       <c r="I6" s="72"/>
       <c r="J6" s="71"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="65"/>
       <c r="C7" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="117" t="s">
         <v>73</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>74</v>
       </c>
       <c r="E7" s="117" t="s">
         <v>7</v>
@@ -3599,13 +3491,13 @@
         <v>42325</v>
       </c>
       <c r="I7" s="120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="121" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="65"/>
       <c r="C8" s="77" t="s">
         <v>3</v>
@@ -3618,10 +3510,10 @@
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="65"/>
       <c r="C9" s="77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
@@ -3631,7 +3523,7 @@
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="65"/>
       <c r="C10" s="77"/>
       <c r="D10" s="66"/>
@@ -3642,16 +3534,16 @@
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="65"/>
       <c r="C11" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="66">
         <v>2015</v>
@@ -3664,10 +3556,10 @@
       </c>
       <c r="I11" s="66"/>
       <c r="J11" s="66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="65"/>
       <c r="C12" s="77"/>
       <c r="D12" s="66"/>
@@ -3678,13 +3570,13 @@
       <c r="I12" s="66"/>
       <c r="J12" s="66"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="65"/>
       <c r="C13" s="131" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="132" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="132" t="s">
         <v>7</v>
@@ -3699,13 +3591,13 @@
         <v>42326</v>
       </c>
       <c r="I13" s="132" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="132" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="65"/>
       <c r="C14" s="77"/>
       <c r="D14" s="66"/>
@@ -3719,11 +3611,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3735,17 +3622,17 @@
       <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="106" customWidth="1"/>
-    <col min="2" max="2" width="2.75" style="106" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="106"/>
-    <col min="4" max="4" width="8.5" style="106" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="106"/>
+    <col min="1" max="1" width="4.7109375" style="106" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="106" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="106"/>
+    <col min="4" max="4" width="8.42578125" style="106" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1"/>
-    <row r="2" spans="2:13">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="108"/>
       <c r="C2" s="109"/>
       <c r="D2" s="109"/>
@@ -3759,13 +3646,13 @@
       <c r="L2" s="109"/>
       <c r="M2" s="109"/>
     </row>
-    <row r="3" spans="2:13" s="22" customFormat="1">
+    <row r="3" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="112"/>
       <c r="C3" s="99" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="99"/>
       <c r="F3" s="99"/>
@@ -3777,7 +3664,7 @@
       <c r="L3" s="99"/>
       <c r="M3" s="99"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="110"/>
       <c r="C4" s="111"/>
       <c r="D4" s="111"/>
@@ -3791,10 +3678,10 @@
       <c r="L4" s="111"/>
       <c r="M4" s="111"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="110"/>
       <c r="C5" s="111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="111"/>
       <c r="E5" s="111"/>
@@ -3807,10 +3694,10 @@
       <c r="L5" s="111"/>
       <c r="M5" s="111"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="110"/>
       <c r="C6" s="111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="111"/>
       <c r="E6" s="111"/>
@@ -3823,7 +3710,7 @@
       <c r="L6" s="111"/>
       <c r="M6" s="111"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="110"/>
       <c r="C7" s="111"/>
       <c r="D7" s="111"/>
@@ -3837,7 +3724,7 @@
       <c r="L7" s="111"/>
       <c r="M7" s="111"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="110"/>
       <c r="C8" s="111"/>
       <c r="D8" s="111"/>
@@ -3851,7 +3738,7 @@
       <c r="L8" s="111"/>
       <c r="M8" s="111"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="110"/>
       <c r="C9" s="111"/>
       <c r="D9" s="111"/>
@@ -3865,7 +3752,7 @@
       <c r="L9" s="111"/>
       <c r="M9" s="111"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="110"/>
       <c r="C10" s="111"/>
       <c r="G10" s="111"/>
@@ -3876,7 +3763,7 @@
       <c r="L10" s="111"/>
       <c r="M10" s="111"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="110"/>
       <c r="C11" s="111"/>
       <c r="D11" s="111"/>
@@ -3890,7 +3777,7 @@
       <c r="L11" s="111"/>
       <c r="M11" s="111"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="110"/>
       <c r="C12" s="111"/>
       <c r="D12" s="111"/>
@@ -3904,7 +3791,7 @@
       <c r="L12" s="111"/>
       <c r="M12" s="111"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="110"/>
       <c r="C13" s="111"/>
       <c r="D13" s="111"/>
@@ -3918,7 +3805,7 @@
       <c r="L13" s="111"/>
       <c r="M13" s="111"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="110"/>
       <c r="C14" s="111"/>
       <c r="D14" s="111"/>
@@ -3932,7 +3819,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="110"/>
       <c r="C15" s="111"/>
       <c r="D15" s="111"/>
@@ -3946,7 +3833,7 @@
       <c r="L15" s="111"/>
       <c r="M15" s="111"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="110"/>
       <c r="C16" s="111"/>
       <c r="D16" s="111"/>
@@ -3960,7 +3847,7 @@
       <c r="L16" s="111"/>
       <c r="M16" s="111"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="110"/>
       <c r="C17" s="111"/>
       <c r="D17" s="111"/>
@@ -3974,7 +3861,7 @@
       <c r="L17" s="111"/>
       <c r="M17" s="111"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="110"/>
       <c r="C18" s="111"/>
       <c r="D18" s="111"/>
@@ -3992,7 +3879,7 @@
       <c r="L18" s="111"/>
       <c r="M18" s="111"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="110"/>
       <c r="C19" s="111"/>
       <c r="D19" s="111"/>
@@ -4006,7 +3893,7 @@
       <c r="L19" s="111"/>
       <c r="M19" s="111"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="110"/>
       <c r="C20" s="111"/>
       <c r="D20" s="111"/>
@@ -4020,7 +3907,7 @@
       <c r="L20" s="111"/>
       <c r="M20" s="111"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="110"/>
       <c r="C21" s="111"/>
       <c r="D21" s="111"/>
@@ -4034,7 +3921,7 @@
       <c r="L21" s="111"/>
       <c r="M21" s="111"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="110"/>
       <c r="C22" s="111"/>
       <c r="D22" s="111"/>
@@ -4048,7 +3935,7 @@
       <c r="L22" s="111"/>
       <c r="M22" s="111"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="110"/>
       <c r="C23" s="111"/>
       <c r="D23" s="111"/>
@@ -4062,7 +3949,7 @@
       <c r="L23" s="111"/>
       <c r="M23" s="111"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="110"/>
       <c r="C24" s="111"/>
       <c r="D24" s="111"/>
@@ -4076,7 +3963,7 @@
       <c r="L24" s="111"/>
       <c r="M24" s="111"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="110"/>
       <c r="C25" s="111"/>
       <c r="D25" s="111"/>
@@ -4090,7 +3977,7 @@
       <c r="L25" s="111"/>
       <c r="M25" s="111"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="110"/>
       <c r="C26" s="111"/>
       <c r="D26" s="111"/>
@@ -4104,7 +3991,7 @@
       <c r="L26" s="111"/>
       <c r="M26" s="111"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="110"/>
       <c r="C27" s="111"/>
       <c r="D27" s="111"/>
@@ -4112,7 +3999,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="111"/>
       <c r="H27" s="111"/>
@@ -4122,7 +4009,7 @@
       <c r="L27" s="111"/>
       <c r="M27" s="111"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="110"/>
       <c r="C28" s="111"/>
       <c r="D28" s="111"/>
@@ -4136,7 +4023,7 @@
       <c r="L28" s="111"/>
       <c r="M28" s="111"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="110"/>
       <c r="C29" s="111"/>
       <c r="D29" s="111"/>
@@ -4150,7 +4037,7 @@
       <c r="L29" s="111"/>
       <c r="M29" s="111"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="110"/>
       <c r="C30" s="111"/>
       <c r="D30" s="111"/>
@@ -4164,7 +4051,7 @@
       <c r="L30" s="111"/>
       <c r="M30" s="111"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="110"/>
       <c r="C31" s="111"/>
       <c r="D31" s="111"/>
@@ -4178,7 +4065,7 @@
       <c r="L31" s="111"/>
       <c r="M31" s="111"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="110"/>
       <c r="C32" s="111"/>
       <c r="D32" s="111"/>
@@ -4192,7 +4079,7 @@
       <c r="L32" s="111"/>
       <c r="M32" s="111"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="110"/>
       <c r="C33" s="111"/>
       <c r="D33" s="111"/>
@@ -4206,7 +4093,7 @@
       <c r="L33" s="111"/>
       <c r="M33" s="111"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="110"/>
       <c r="C34" s="111"/>
       <c r="D34" s="111"/>
@@ -4220,7 +4107,7 @@
       <c r="L34" s="111"/>
       <c r="M34" s="111"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="110"/>
       <c r="C35" s="111"/>
       <c r="D35" s="111"/>
@@ -4234,7 +4121,7 @@
       <c r="L35" s="111"/>
       <c r="M35" s="111"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="110"/>
       <c r="C36" s="111"/>
       <c r="D36" s="111"/>
@@ -4248,10 +4135,10 @@
       <c r="L36" s="111"/>
       <c r="M36" s="111"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="110"/>
       <c r="C37" s="117" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="111"/>
       <c r="E37" s="111"/>
@@ -4264,10 +4151,10 @@
       <c r="L37" s="111"/>
       <c r="M37" s="111"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="110"/>
       <c r="C38" s="117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="111"/>
       <c r="E38" s="111"/>
@@ -4280,7 +4167,7 @@
       <c r="L38" s="111"/>
       <c r="M38" s="111"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="110"/>
       <c r="C39" s="111"/>
       <c r="D39" s="111"/>
@@ -4288,7 +4175,7 @@
         <v>67</v>
       </c>
       <c r="F39" s="117" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="111"/>
       <c r="H39" s="111"/>
@@ -4298,7 +4185,7 @@
       <c r="L39" s="111"/>
       <c r="M39" s="111"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="110"/>
       <c r="C40" s="111"/>
       <c r="D40" s="111"/>
@@ -4312,7 +4199,7 @@
       <c r="L40" s="111"/>
       <c r="M40" s="111"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="110"/>
       <c r="C41" s="111"/>
       <c r="D41" s="111"/>
@@ -4320,7 +4207,7 @@
         <v>3.7854100000000002</v>
       </c>
       <c r="F41" s="117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G41" s="111"/>
       <c r="H41" s="111"/>
@@ -4330,7 +4217,7 @@
       <c r="L41" s="111"/>
       <c r="M41" s="111"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="110"/>
       <c r="C42" s="111"/>
       <c r="D42" s="111"/>
@@ -4338,7 +4225,7 @@
         <v>43.2</v>
       </c>
       <c r="F42" s="117" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G42" s="111"/>
       <c r="H42" s="111"/>
@@ -4348,7 +4235,7 @@
       <c r="L42" s="111"/>
       <c r="M42" s="111"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="110"/>
       <c r="C43" s="111"/>
       <c r="D43" s="111"/>
@@ -4356,7 +4243,7 @@
         <v>0.745</v>
       </c>
       <c r="F43" s="117" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G43" s="111"/>
       <c r="H43" s="111"/>
@@ -4366,7 +4253,7 @@
       <c r="L43" s="111"/>
       <c r="M43" s="111"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="110"/>
       <c r="C44" s="111"/>
       <c r="D44" s="111"/>
@@ -4374,7 +4261,7 @@
         <v>1.60934</v>
       </c>
       <c r="F44" s="117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G44" s="111"/>
       <c r="H44" s="111"/>
@@ -4384,7 +4271,7 @@
       <c r="L44" s="111"/>
       <c r="M44" s="111"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="110"/>
       <c r="C45" s="111"/>
       <c r="D45" s="111"/>
@@ -4396,7 +4283,7 @@
       <c r="L45" s="111"/>
       <c r="M45" s="111"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="110"/>
       <c r="C46" s="111"/>
       <c r="D46" s="111"/>
@@ -4405,7 +4292,7 @@
         <v>0.54994829261388445</v>
       </c>
       <c r="F46" s="117" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G46" s="111"/>
       <c r="H46" s="111"/>
@@ -4415,7 +4302,7 @@
       <c r="L46" s="111"/>
       <c r="M46" s="111"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="110"/>
       <c r="C47" s="111"/>
       <c r="D47" s="111"/>
@@ -4424,7 +4311,7 @@
         <v>0.88505378523522882</v>
       </c>
       <c r="F47" s="117" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="111"/>
       <c r="H47" s="111"/>
@@ -4434,7 +4321,7 @@
       <c r="L47" s="111"/>
       <c r="M47" s="111"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="110"/>
       <c r="C48" s="111"/>
       <c r="D48" s="111"/>
@@ -4448,7 +4335,7 @@
       <c r="L48" s="111"/>
       <c r="M48" s="111"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="110"/>
       <c r="C49" s="111"/>
       <c r="D49" s="111"/>
@@ -4462,10 +4349,10 @@
       <c r="L49" s="111"/>
       <c r="M49" s="111"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="110"/>
       <c r="C50" s="111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" s="111"/>
       <c r="E50" s="111"/>
@@ -4478,10 +4365,10 @@
       <c r="L50" s="111"/>
       <c r="M50" s="111"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="110"/>
       <c r="C51" s="117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="111"/>
       <c r="E51" s="111"/>
@@ -4494,123 +4381,123 @@
       <c r="L51" s="111"/>
       <c r="M51" s="111"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="110"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="110"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="110"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="110"/>
       <c r="E55" s="106">
         <v>1.1000000000000001</v>
       </c>
       <c r="F55" s="123" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="110"/>
       <c r="E56" s="106">
         <f>1/E55</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="F56" s="123" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="110"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="110"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="110"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="110"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="110"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="110"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="110"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="110"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B65" s="110"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B66" s="110"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B67" s="110"/>
       <c r="C67" s="129" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" s="110"/>
       <c r="C68" s="129" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="120"/>
       <c r="B69" s="122"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="120"/>
       <c r="B70" s="122"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="120"/>
       <c r="B71" s="122"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="120"/>
       <c r="B72" s="122"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="120"/>
       <c r="B73" s="122"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="120"/>
       <c r="B74" s="122"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="120"/>
       <c r="B75" s="122"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="120"/>
       <c r="B76" s="122"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="120"/>
       <c r="B77" s="122"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="120"/>
       <c r="B78" s="122"/>
       <c r="E78" s="106">
         <v>0.98</v>
       </c>
       <c r="F78" s="129" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="120"/>
       <c r="B79" s="122"/>
       <c r="E79" s="106">
@@ -4618,42 +4505,42 @@
         <v>1.0204081632653061</v>
       </c>
       <c r="F79" s="129" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="120"/>
       <c r="B80" s="122"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="120"/>
       <c r="B81" s="122"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="120"/>
       <c r="B82" s="122"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="120"/>
       <c r="B83" s="122"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="120"/>
       <c r="B84" s="122"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="120"/>
       <c r="B85" s="122"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="120"/>
       <c r="B86" s="122"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="120"/>
       <c r="B87" s="122"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="120"/>
       <c r="B88" s="122"/>
     </row>
@@ -4661,10 +4548,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_car_using_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_hydrogen.converter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16200" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="122">
   <si>
     <t>Source</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Fixed operational and maintenance costs per year</t>
-  </si>
-  <si>
-    <t>output.car_kms</t>
   </si>
   <si>
     <t xml:space="preserve">Technical lifetime </t>
@@ -433,6 +430,48 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>Vehicle kilometers cars</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=80302NED&amp;D1=a&amp;D2=a&amp;D3=25&amp;HDR=T,G2&amp;STB=G1&amp;VW=T</t>
+  </si>
+  <si>
+    <t>Passenger kilometers cars</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=83497ned&amp;D1=0&amp;D2=a&amp;D3=0&amp;D4=5&amp;HDR=T,G3&amp;STB=G1,G2&amp;VW=T</t>
+  </si>
+  <si>
+    <t>vehicle km</t>
+  </si>
+  <si>
+    <t>mln vehicle km</t>
+  </si>
+  <si>
+    <t>passenger km</t>
+  </si>
+  <si>
+    <t>mld passenger km</t>
+  </si>
+  <si>
+    <t>passenger km/vehicle km</t>
+  </si>
+  <si>
+    <t>passenger km/MJ</t>
+  </si>
+  <si>
+    <t>output.passenger_kms</t>
+  </si>
+  <si>
+    <t>pkm/MJ</t>
+  </si>
 </sst>
 </file>
 
@@ -444,12 +483,19 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -596,6 +642,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -603,6 +650,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,6 +658,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,17 +666,20 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,16 +687,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -942,533 +997,537 @@
   </borders>
   <cellStyleXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="287">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1779,8 +1838,8 @@
       <xdr:rowOff>141116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -1817,8 +1876,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -1934,7 +1993,7 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1959,6 +2018,196 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>316173</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>158467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>36350</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>4113</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8126673" y="21507167"/>
+          <a:ext cx="11277177" cy="4366846"/>
+          <a:chOff x="9231573" y="32137067"/>
+          <a:chExt cx="12902777" cy="4417646"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Picture 8"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9231573" y="32137067"/>
+            <a:ext cx="12902777" cy="4417646"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13195110" y="34022352"/>
+            <a:ext cx="1173708" cy="552735"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Group 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8064500" y="26733500"/>
+          <a:ext cx="14605001" cy="4152900"/>
+          <a:chOff x="9702800" y="37896800"/>
+          <a:chExt cx="16776701" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="Picture 11"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9702800" y="37896800"/>
+            <a:ext cx="16776701" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13367223" y="40003862"/>
+            <a:ext cx="1654792" cy="368490"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2410,10 +2659,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.1640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -2439,16 +2688,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2472,106 +2721,106 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="80"/>
+      <c r="B9" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="79"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="81"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="84" t="s">
-        <v>34</v>
+      <c r="B13" s="80"/>
+      <c r="C13" s="83" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82" t="s">
-        <v>35</v>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="84" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="86" t="s">
-        <v>38</v>
+      <c r="B17" s="80"/>
+      <c r="C17" s="85" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="87" t="s">
-        <v>39</v>
+      <c r="B18" s="80"/>
+      <c r="C18" s="86" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="88" t="s">
-        <v>40</v>
+      <c r="B19" s="80"/>
+      <c r="C19" s="87" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90" t="s">
-        <v>41</v>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="91" t="s">
-        <v>42</v>
+      <c r="B21" s="88"/>
+      <c r="C21" s="90" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="92" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="88"/>
+      <c r="C23" s="92" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="89"/>
-      <c r="C23" s="93" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2588,22 +2837,22 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="2.28515625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="32"/>
+    <col min="1" max="1" width="3.83203125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="32" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -2613,38 +2862,38 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="145" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="147"/>
+      <c r="B2" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="150"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="148"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="150"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="149"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="151"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="153"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="33"/>
@@ -2668,7 +2917,7 @@
       <c r="D8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="98" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="15"/>
@@ -2679,7 +2928,7 @@
       <c r="I8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="104"/>
+      <c r="J8" s="103"/>
     </row>
     <row r="9" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
@@ -2695,7 +2944,7 @@
     <row r="10" spans="1:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="13"/>
@@ -2707,43 +2956,43 @@
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
-      <c r="C11" s="61" t="s">
-        <v>28</v>
+      <c r="C11" s="60" t="s">
+        <v>120</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="127">
-        <f>'Research data'!H7</f>
-        <v>1.0204081632653061</v>
+        <v>121</v>
+      </c>
+      <c r="E11" s="126">
+        <f>'Research data'!F7</f>
+        <v>1.3545382887775037</v>
       </c>
       <c r="F11" s="36"/>
-      <c r="G11" s="126" t="s">
-        <v>72</v>
+      <c r="G11" s="125" t="s">
+        <v>71</v>
       </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="107" t="s">
-        <v>57</v>
+      <c r="I11" s="106" t="s">
+        <v>56</v>
       </c>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="143" t="s">
-        <v>105</v>
+      <c r="C12" s="142" t="s">
+        <v>104</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="38">
         <v>0</v>
       </c>
       <c r="F12" s="36"/>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="143" t="s">
         <v>106</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="144" t="s">
-        <v>107</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="33"/>
@@ -2751,27 +3000,27 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="37"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="105"/>
+      <c r="J13" s="104"/>
       <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
+        <v>50</v>
+      </c>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="105"/>
+      <c r="J14" s="104"/>
     </row>
     <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
@@ -2789,10 +3038,10 @@
         <v>6</v>
       </c>
       <c r="H15" s="36"/>
-      <c r="I15" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="105"/>
+      <c r="I15" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="104"/>
     </row>
     <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
@@ -2802,7 +3051,7 @@
       <c r="D16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E16" s="99">
         <v>0</v>
       </c>
       <c r="F16" s="36"/>
@@ -2810,178 +3059,178 @@
         <v>27</v>
       </c>
       <c r="H16" s="36"/>
-      <c r="I16" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="105"/>
+      <c r="I16" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="104"/>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="136" t="s">
+      <c r="A17" s="133"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="137" t="s">
+      <c r="E17" s="99">
+        <v>0</v>
+      </c>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="100">
+      <c r="H17" s="135"/>
+      <c r="I17" s="143" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="137"/>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="136"/>
+      <c r="E18" s="99">
         <v>0</v>
       </c>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="136"/>
-      <c r="I17" s="144" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="138"/>
-    </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="136" t="s">
+      <c r="F18" s="135"/>
+      <c r="G18" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="100">
+      <c r="H18" s="135"/>
+      <c r="I18" s="143" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="137"/>
+    </row>
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="133"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="136"/>
+      <c r="E19" s="99">
         <v>0</v>
       </c>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="136"/>
-      <c r="I18" s="144" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" s="138"/>
-    </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="134"/>
-      <c r="B19" s="135"/>
-      <c r="C19" s="136" t="s">
+      <c r="F19" s="135"/>
+      <c r="G19" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="100">
+      <c r="H19" s="135"/>
+      <c r="I19" s="143" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="137"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="133"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="136"/>
+      <c r="E20" s="99">
         <v>0</v>
       </c>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="136"/>
-      <c r="I19" s="144" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" s="138"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="136" t="s">
+      <c r="F20" s="135"/>
+      <c r="G20" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="100">
+      <c r="H20" s="135"/>
+      <c r="I20" s="143" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="137"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="133"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="136"/>
+      <c r="E21" s="99">
         <v>0</v>
       </c>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="136"/>
-      <c r="I20" s="144" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" s="138"/>
-    </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="136" t="s">
+      <c r="F21" s="135"/>
+      <c r="G21" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="137"/>
-      <c r="E21" s="100">
+      <c r="H21" s="135"/>
+      <c r="I21" s="143" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="137"/>
+    </row>
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="133"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="99">
         <v>0</v>
       </c>
-      <c r="F21" s="136"/>
-      <c r="G21" s="139" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="136"/>
-      <c r="I21" s="144" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="138"/>
-    </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="134"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="F22" s="138"/>
+      <c r="G22" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="100">
+      <c r="H22" s="138"/>
+      <c r="I22" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="141"/>
+    </row>
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="133"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="99">
         <v>0</v>
       </c>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="139"/>
-      <c r="I22" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="142"/>
-    </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="139" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="100">
-        <v>0</v>
-      </c>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="J23" s="142"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="141"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="37"/>
       <c r="C24" s="33"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="103"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="102"/>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="105"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="103"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="102"/>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="105"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="104"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
@@ -2992,40 +3241,40 @@
         <v>1</v>
       </c>
       <c r="E26" s="38">
-        <f>'Research data'!H14</f>
+        <f>'Research data'!F14</f>
         <v>13</v>
       </c>
       <c r="F26" s="36"/>
-      <c r="G26" s="67" t="s">
-        <v>29</v>
+      <c r="G26" s="66" t="s">
+        <v>28</v>
       </c>
       <c r="H26" s="36"/>
-      <c r="I26" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="105"/>
+      <c r="I26" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="134"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="139" t="s">
-        <v>102</v>
+      <c r="A27" s="133"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="138" t="s">
+        <v>101</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="100">
+      <c r="E27" s="99">
         <v>0</v>
       </c>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139" t="s">
+      <c r="F27" s="138"/>
+      <c r="G27" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="138"/>
+      <c r="I27" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="139"/>
-      <c r="I27" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="J27" s="142"/>
+      <c r="J27" s="141"/>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
@@ -3042,7 +3291,7 @@
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
       <c r="I28" s="31"/>
-      <c r="J28" s="105"/>
+      <c r="J28" s="104"/>
     </row>
     <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="39"/>
@@ -3069,35 +3318,33 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:Q15"/>
+  <dimension ref="A2:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" style="42" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.42578125" style="42" customWidth="1"/>
-    <col min="16" max="16" width="68.85546875" style="42" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="42"/>
+    <col min="1" max="1" width="3.33203125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="42" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="42" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="42" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="42" customWidth="1"/>
+    <col min="14" max="14" width="68.83203125" style="42" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -3111,41 +3358,37 @@
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
       <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-    </row>
-    <row r="4" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
-      <c r="C4" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="95" t="s">
+      <c r="C4" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="21"/>
       <c r="C5" s="9"/>
@@ -3160,210 +3403,188 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="22"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="22"/>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="21"/>
       <c r="C6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
       <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="P6" s="58"/>
-    </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="124">
-        <f>N7</f>
-        <v>1.0204081632653061</v>
-      </c>
-      <c r="I7" s="49"/>
+      <c r="C7" s="159" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="95"/>
+      <c r="F7" s="123">
+        <f>L7</f>
+        <v>1.3545382887775037</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="123">
+        <f>Notes!E117</f>
+        <v>1.2067704754563213</v>
+      </c>
+      <c r="I7" s="46"/>
       <c r="J7" s="124">
-        <f>Notes!E56</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="125">
-        <f>Notes!E47</f>
-        <v>0.88505378523522882</v>
-      </c>
-      <c r="M7" s="128"/>
-      <c r="N7" s="124">
-        <f>Notes!E79</f>
-        <v>1.0204081632653061</v>
-      </c>
-      <c r="O7" s="46"/>
-      <c r="P7" s="130" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <f>Notes!E118</f>
+        <v>1.1748624549340074</v>
+      </c>
+      <c r="K7" s="127"/>
+      <c r="L7" s="123">
+        <f>Notes!E116</f>
+        <v>1.3545382887775037</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="129" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="45"/>
       <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="60"/>
-    </row>
-    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="59"/>
+    </row>
+    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
       <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="114"/>
-    </row>
-    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="113"/>
+    </row>
+    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="97"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="50">
+        <f>H10</f>
+        <v>26600</v>
+      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="50">
-        <f>J10</f>
-        <v>26600</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="50">
         <f>Notes!E18</f>
         <v>26600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="45"/>
       <c r="C11" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="49"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E11" s="97"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="49"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="45"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="60"/>
-    </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="59"/>
+    </row>
+    <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="45"/>
       <c r="C13" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
       <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="48"/>
-    </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="48"/>
+    </row>
+    <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="45"/>
       <c r="C14" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="47" t="s">
+      <c r="D14" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="96"/>
-      <c r="H14" s="53">
+      <c r="E14" s="95"/>
+      <c r="F14" s="53">
         <f>Notes!E27</f>
         <v>13</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="57"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
       <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="68"/>
-    </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="67"/>
+    </row>
+    <row r="15" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="45"/>
-      <c r="C15" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="116" t="s">
+      <c r="C15" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="55">
+      <c r="E15" s="97"/>
+      <c r="F15" s="54">
         <v>0</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3376,237 +3597,283 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:J13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="62" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="62" customWidth="1"/>
-    <col min="6" max="7" width="13.28515625" style="62" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="69" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" style="69" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="62" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="62"/>
+    <col min="1" max="1" width="5.5" style="61" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="61" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" style="61" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="68" customWidth="1"/>
+    <col min="9" max="9" width="34.5" style="68" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="61" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="65"/>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="66"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="76" t="s">
+      <c r="G5" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="64"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="70"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="64"/>
+      <c r="C7" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="116">
+        <v>2013</v>
+      </c>
+      <c r="G7" s="116">
+        <v>2013</v>
+      </c>
+      <c r="H7" s="118">
+        <v>42325</v>
+      </c>
+      <c r="I7" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="65"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="71"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="65"/>
-      <c r="C7" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="117" t="s">
+      <c r="J7" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="117" t="s">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="64"/>
+      <c r="C8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="64"/>
+      <c r="C9" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="64"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="64"/>
+      <c r="C11" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="65">
+        <v>2015</v>
+      </c>
+      <c r="G11" s="65">
+        <v>2015</v>
+      </c>
+      <c r="H11" s="118">
+        <v>42326</v>
+      </c>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="64"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="64"/>
+      <c r="C13" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="131" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="117">
-        <v>2013</v>
-      </c>
-      <c r="G7" s="117">
-        <v>2013</v>
-      </c>
-      <c r="H7" s="119">
-        <v>42325</v>
-      </c>
-      <c r="I7" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="121" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="65"/>
-      <c r="C8" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="65"/>
-      <c r="C9" s="77" t="s">
+      <c r="F13" s="131">
+        <v>2014</v>
+      </c>
+      <c r="G13" s="131">
+        <v>2014</v>
+      </c>
+      <c r="H13" s="132">
+        <v>42326</v>
+      </c>
+      <c r="I13" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="65"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="65"/>
-      <c r="C11" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="66">
+      <c r="J13" s="131" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="64"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+    </row>
+    <row r="15" spans="2:10" s="153" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="153" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="153">
         <v>2015</v>
       </c>
-      <c r="G11" s="66">
+      <c r="H15" s="154" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="154"/>
+      <c r="J15" s="153" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="153" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+    </row>
+    <row r="17" spans="3:10" s="153" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="153" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="153" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="153">
         <v>2015</v>
       </c>
-      <c r="H11" s="119">
-        <v>42326</v>
-      </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="65"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
-      <c r="C13" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="132" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="132">
-        <v>2014</v>
-      </c>
-      <c r="G13" s="132">
-        <v>2014</v>
-      </c>
-      <c r="H13" s="133">
-        <v>42326</v>
-      </c>
-      <c r="I13" s="132" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="132" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
+      <c r="H17" s="154" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="154"/>
+      <c r="J17" s="153" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3616,933 +3883,1157 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="106" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="106" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="106"/>
-    <col min="4" max="4" width="8.42578125" style="106" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="106"/>
+    <col min="1" max="1" width="4.6640625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="105" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="105"/>
+    <col min="4" max="4" width="8.5" style="105" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="112"/>
-      <c r="C3" s="99" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="109"/>
+      <c r="C5" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="109"/>
+      <c r="C6" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="110"/>
-      <c r="C5" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="110"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="110"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="110"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="110"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="110"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="110"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="110"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="110"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="110"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111">
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110">
         <v>26600</v>
       </c>
-      <c r="F18" s="111" t="s">
+      <c r="F18" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="110"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="110"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="110"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="110"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="110"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="110"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="110"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111">
+      <c r="B27" s="109"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110">
         <v>13</v>
       </c>
-      <c r="F27" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
+      <c r="F27" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="110"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="110"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="110"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="110"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="111"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="110"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="110"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="110"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="110"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="110"/>
-      <c r="C37" s="117" t="s">
+      <c r="B37" s="109"/>
+      <c r="C37" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="109"/>
+      <c r="C38" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="110"/>
-      <c r="C38" s="117" t="s">
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="109"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110">
+        <v>67</v>
+      </c>
+      <c r="F39" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="110"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111">
-        <v>67</v>
-      </c>
-      <c r="F39" s="117" t="s">
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="109"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="109"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110">
+        <v>3.7854100000000002</v>
+      </c>
+      <c r="F41" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="109"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110">
+        <v>43.2</v>
+      </c>
+      <c r="F42" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="111"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="110"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="110"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111">
-        <v>3.7854100000000002</v>
-      </c>
-      <c r="F41" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="111"/>
-      <c r="M41" s="111"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="110"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111">
-        <v>43.2</v>
-      </c>
-      <c r="F42" s="117" t="s">
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="109"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110">
+        <v>0.745</v>
+      </c>
+      <c r="F43" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="110"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111">
-        <v>0.745</v>
-      </c>
-      <c r="F43" s="117" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="111"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="110"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111">
+      <c r="B44" s="109"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110">
         <v>1.60934</v>
       </c>
-      <c r="F44" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="111"/>
+      <c r="F44" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="110"/>
+      <c r="M44" s="110"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="110"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="111"/>
-      <c r="J45" s="111"/>
-      <c r="K45" s="111"/>
-      <c r="L45" s="111"/>
-      <c r="M45" s="111"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="110"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111">
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110">
         <f>E39/(E41*E42*E43)</f>
         <v>0.54994829261388445</v>
       </c>
-      <c r="F46" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="111"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="111"/>
+      <c r="F46" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="110"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="110"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111">
+      <c r="B47" s="109"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110">
         <f>E46*E44</f>
         <v>0.88505378523522882</v>
       </c>
-      <c r="F47" s="117" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="111"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="111"/>
+      <c r="F47" s="116" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="111"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="111"/>
-      <c r="J48" s="111"/>
-      <c r="K48" s="111"/>
-      <c r="L48" s="111"/>
-      <c r="M48" s="111"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="110"/>
+      <c r="M48" s="110"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49" s="110"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="111"/>
-      <c r="L49" s="111"/>
-      <c r="M49" s="111"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="110"/>
+      <c r="L49" s="110"/>
+      <c r="M49" s="110"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B50" s="110"/>
-      <c r="C50" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="111"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="110"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="110"/>
-      <c r="C51" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="111"/>
-      <c r="K51" s="111"/>
-      <c r="L51" s="111"/>
-      <c r="M51" s="111"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="110"/>
+      <c r="L51" s="110"/>
+      <c r="M51" s="110"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B52" s="110"/>
+      <c r="B52" s="109"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B53" s="110"/>
+      <c r="B53" s="109"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B54" s="110"/>
+      <c r="B54" s="109"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B55" s="110"/>
-      <c r="E55" s="106">
+      <c r="B55" s="109"/>
+      <c r="E55" s="105">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F55" s="123" t="s">
-        <v>71</v>
+      <c r="F55" s="122" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B56" s="110"/>
-      <c r="E56" s="106">
+      <c r="B56" s="109"/>
+      <c r="E56" s="105">
         <f>1/E55</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="F56" s="123" t="s">
-        <v>62</v>
+      <c r="F56" s="122" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B57" s="110"/>
+      <c r="B57" s="109"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B58" s="110"/>
+      <c r="B58" s="109"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B59" s="110"/>
+      <c r="B59" s="109"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B60" s="110"/>
+      <c r="B60" s="109"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B61" s="110"/>
+      <c r="B61" s="109"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B62" s="110"/>
+      <c r="B62" s="109"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B63" s="110"/>
+      <c r="B63" s="109"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B64" s="110"/>
+      <c r="B64" s="109"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="110"/>
+      <c r="B65" s="109"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="110"/>
+      <c r="B66" s="109"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="110"/>
-      <c r="C67" s="129" t="s">
+      <c r="B67" s="109"/>
+      <c r="C67" s="128" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="109"/>
+      <c r="C68" s="128" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="110"/>
-      <c r="C68" s="129" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="120"/>
-      <c r="B69" s="122"/>
+      <c r="A69" s="119"/>
+      <c r="B69" s="121"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="120"/>
-      <c r="B70" s="122"/>
+      <c r="A70" s="119"/>
+      <c r="B70" s="121"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="120"/>
-      <c r="B71" s="122"/>
+      <c r="A71" s="119"/>
+      <c r="B71" s="121"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="120"/>
-      <c r="B72" s="122"/>
+      <c r="A72" s="119"/>
+      <c r="B72" s="121"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="120"/>
-      <c r="B73" s="122"/>
+      <c r="A73" s="119"/>
+      <c r="B73" s="121"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="120"/>
-      <c r="B74" s="122"/>
+      <c r="A74" s="119"/>
+      <c r="B74" s="121"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="120"/>
-      <c r="B75" s="122"/>
+      <c r="A75" s="119"/>
+      <c r="B75" s="121"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="120"/>
-      <c r="B76" s="122"/>
+      <c r="A76" s="119"/>
+      <c r="B76" s="121"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="120"/>
-      <c r="B77" s="122"/>
+      <c r="A77" s="119"/>
+      <c r="B77" s="121"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="120"/>
-      <c r="B78" s="122"/>
-      <c r="E78" s="106">
+      <c r="A78" s="119"/>
+      <c r="B78" s="121"/>
+      <c r="E78" s="105">
         <v>0.98</v>
       </c>
-      <c r="F78" s="129" t="s">
-        <v>71</v>
+      <c r="F78" s="128" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="120"/>
-      <c r="B79" s="122"/>
-      <c r="E79" s="106">
+      <c r="A79" s="119"/>
+      <c r="B79" s="121"/>
+      <c r="E79" s="105">
         <f>1/E78</f>
         <v>1.0204081632653061</v>
       </c>
-      <c r="F79" s="129" t="s">
+      <c r="F79" s="128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="119"/>
+      <c r="B80" s="121"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="119"/>
+      <c r="B81" s="121"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="119"/>
+      <c r="B82" s="121"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="119"/>
+      <c r="B83" s="121"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="119"/>
+      <c r="B84" s="121"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="119"/>
+      <c r="B85" s="121"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="119"/>
+      <c r="B86" s="121"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="119"/>
+      <c r="B87" s="121"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="119"/>
+      <c r="B88" s="121"/>
+    </row>
+    <row r="106" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="2:6" s="61" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="64"/>
+      <c r="C107" s="155" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" s="156">
+        <v>105088.9</v>
+      </c>
+      <c r="F107" s="61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" s="61" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="64"/>
+      <c r="E108" s="61">
+        <f>E107*1000000</f>
+        <v>105088900000</v>
+      </c>
+      <c r="F108" s="61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" s="61" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="64"/>
+      <c r="D109" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" s="157">
+        <f>(97.3+42.2)</f>
+        <v>139.5</v>
+      </c>
+      <c r="F109" s="61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="64"/>
+      <c r="E110" s="61">
+        <f>E109*1000000000</f>
+        <v>139500000000</v>
+      </c>
+      <c r="F110" s="61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="64"/>
+    </row>
+    <row r="112" spans="2:6" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="64"/>
+      <c r="E112" s="158">
+        <f>E110/E108</f>
+        <v>1.3274475230019536</v>
+      </c>
+      <c r="F112" s="61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="64"/>
+    </row>
+    <row r="114" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="64"/>
+    </row>
+    <row r="115" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="64"/>
+    </row>
+    <row r="116" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="64"/>
+      <c r="D116" s="61" t="str">
+        <f>Dashboard!C11</f>
+        <v>output.passenger_kms</v>
+      </c>
+      <c r="E116" s="61">
+        <f>E112*E79</f>
+        <v>1.3545382887775037</v>
+      </c>
+      <c r="F116" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="H116" s="94" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="64"/>
+      <c r="D117" s="61" t="str">
+        <f>Dashboard!C11</f>
+        <v>output.passenger_kms</v>
+      </c>
+      <c r="E117" s="61">
+        <f>E112*E56</f>
+        <v>1.2067704754563213</v>
+      </c>
+      <c r="F117" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="H117" s="94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="64"/>
+      <c r="D118" s="61" t="str">
+        <f>Dashboard!C11</f>
+        <v>output.passenger_kms</v>
+      </c>
+      <c r="E118" s="61">
+        <f>E112*E47</f>
+        <v>1.1748624549340074</v>
+      </c>
+      <c r="F118" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="H118" s="94" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="120"/>
-      <c r="B80" s="122"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="120"/>
-      <c r="B81" s="122"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="120"/>
-      <c r="B82" s="122"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="120"/>
-      <c r="B83" s="122"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="120"/>
-      <c r="B84" s="122"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="120"/>
-      <c r="B85" s="122"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="120"/>
-      <c r="B86" s="122"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="120"/>
-      <c r="B87" s="122"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="120"/>
-      <c r="B88" s="122"/>
+    <row r="119" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="64"/>
+    </row>
+    <row r="120" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="64"/>
+    </row>
+    <row r="121" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="64"/>
+    </row>
+    <row r="122" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="64"/>
+    </row>
+    <row r="123" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="64"/>
+    </row>
+    <row r="124" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="64"/>
+    </row>
+    <row r="125" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="64"/>
+    </row>
+    <row r="126" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="64"/>
+    </row>
+    <row r="127" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="64"/>
+    </row>
+    <row r="128" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="64"/>
+    </row>
+    <row r="129" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="64"/>
+    </row>
+    <row r="130" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="64"/>
+    </row>
+    <row r="131" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="64"/>
+    </row>
+    <row r="132" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="64"/>
+    </row>
+    <row r="133" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="64"/>
+    </row>
+    <row r="134" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="64"/>
+    </row>
+    <row r="135" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="64"/>
+    </row>
+    <row r="136" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="64"/>
+    </row>
+    <row r="137" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="64"/>
+    </row>
+    <row r="138" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="64"/>
+    </row>
+    <row r="139" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="64"/>
+    </row>
+    <row r="140" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="64"/>
+    </row>
+    <row r="141" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="64"/>
+    </row>
+    <row r="142" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="64"/>
+    </row>
+    <row r="143" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="64"/>
+    </row>
+    <row r="144" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="64"/>
+    </row>
+    <row r="145" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="64"/>
+    </row>
+    <row r="146" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="64"/>
+    </row>
+    <row r="147" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="64"/>
+    </row>
+    <row r="148" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="64"/>
+    </row>
+    <row r="149" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="64"/>
+    </row>
+    <row r="150" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="64"/>
+    </row>
+    <row r="151" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="64"/>
+    </row>
+    <row r="152" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
